--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="40" windowWidth="25600" windowHeight="15680" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="520" windowWidth="25600" windowHeight="15680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t xml:space="preserve">Class Inverval </t>
   </si>
@@ -78,12 +78,36 @@
   <si>
     <t>Prob</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Expected Freq</t>
+  </si>
+  <si>
+    <t>Observed Prob</t>
+  </si>
+  <si>
+    <t>ChiSqr</t>
+  </si>
+  <si>
+    <t>Sum of Chi-Squares =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +145,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,7 +183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,15 +232,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="96">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -229,6 +317,30 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -252,12 +364,787 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$55:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-5.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-10.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11-15.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$55:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2076332200"/>
+        <c:axId val="2076399832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2076332200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2076399832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2076399832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2076332200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$80:$A$90</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-5.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-10.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11-15.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$80:$B$90</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2079028840"/>
+        <c:axId val="2079032840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2079028840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2079032840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2079032840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2079028840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observed Prob</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$95:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-5.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-10.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11-15.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$95:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$94</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected Freq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$95:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0-5.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-10.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11-15.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21-25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36-40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41-45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46-50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$95:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.35881961157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.230068097923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.147515152391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0945838227100001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0606452921839999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.038884571999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.024932024979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.015985925459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.010249861896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00657201043199995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080450552"/>
+        <c:axId val="2080418552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080450552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080418552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080418552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080450552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,13 +1469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1226,9 +2117,9 @@
       <c r="B55">
         <v>37</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <f>B55/suma</f>
-        <v>0.32456140350877194</v>
+        <v>0.37</v>
       </c>
       <c r="D55">
         <v>2.56</v>
@@ -1241,9 +2132,9 @@
       <c r="B56">
         <v>21</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <f>B56/suma</f>
-        <v>0.18421052631578946</v>
+        <v>0.21</v>
       </c>
       <c r="D56">
         <v>7.95</v>
@@ -1256,9 +2147,9 @@
       <c r="B57">
         <v>15</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <f>B57/suma</f>
-        <v>0.13157894736842105</v>
+        <v>0.15</v>
       </c>
       <c r="D57">
         <v>12.93</v>
@@ -1269,11 +2160,11 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <v>21</v>
-      </c>
-      <c r="C58" s="3">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4">
         <f>B58/suma</f>
-        <v>0.18421052631578946</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D58">
         <v>18.14</v>
@@ -1286,9 +2177,9 @@
       <c r="B59">
         <v>7</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <f>B59/suma</f>
-        <v>6.1403508771929821E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D59">
         <v>22.85</v>
@@ -1301,9 +2192,9 @@
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <f>B60/suma</f>
-        <v>3.5087719298245612E-2</v>
+        <v>0.04</v>
       </c>
       <c r="D60">
         <v>28.75</v>
@@ -1316,9 +2207,9 @@
       <c r="B61">
         <v>3</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <f>B61/suma</f>
-        <v>2.6315789473684209E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D61">
         <v>33</v>
@@ -1331,9 +2222,9 @@
       <c r="B62">
         <v>3</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <f>B62/suma</f>
-        <v>2.6315789473684209E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D62">
         <v>39.659999999999997</v>
@@ -1346,9 +2237,9 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <f>B63/suma</f>
-        <v>8.771929824561403E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D63">
         <v>45</v>
@@ -1361,9 +2252,9 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <f>B64/suma</f>
-        <v>8.771929824561403E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D64">
         <v>46</v>
@@ -1376,9 +2267,9 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <f>B65/suma</f>
-        <v>8.771929824561403E-3</v>
+        <v>0.01</v>
       </c>
       <c r="D65">
         <v>54</v>
@@ -1390,16 +2281,550 @@
       </c>
       <c r="B66">
         <f>SUM(B55:B65)</f>
-        <v>114</v>
-      </c>
-      <c r="C66" s="4">
+        <v>100</v>
+      </c>
+      <c r="C66" s="5">
         <f>SUM(C55:C65)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" s="4">
+        <f>D80/suma</f>
+        <v>0.37</v>
+      </c>
+      <c r="D80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
         <v>1</v>
       </c>
+      <c r="B81" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C81" s="5">
+        <f>B81-B80</f>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" ref="C82:C90" si="6">B82-B81</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="6"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="C95" s="3">
+        <v>0.35881961156999997</v>
+      </c>
+      <c r="D95">
+        <f>(B95-C95)^2/C95</f>
+        <v>3.4836748442690016E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.23006809792299998</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ref="D96:D105" si="7">(B96-C96)^2/C96</f>
+        <v>1.7504754369808502E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.14751515239099999</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>4.1856497721584115E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>9.4583822710000098E-2</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>6.3897220657885122E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>6.0645292183999944E-2</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>1.4429901344563164E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="C100" s="3">
+        <v>3.8884571998999973E-2</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>3.1996742189856594E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2.4932024979000045E-2</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>1.0301758816266681E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1.5985925459000017E-2</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>1.2285449831754008E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1.0249861895999968E-2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>6.0909081220950295E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C104" s="3">
+        <v>6.5720104319999528E-3</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>1.7880544469466289E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="C105" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="7"/>
+        <v>1.6333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <f>SUM(D95:D105)</f>
+        <v>4.1448512763346754E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="7">
+        <v>5</v>
+      </c>
+      <c r="B113" s="7">
+        <v>0.35881961156999997</v>
+      </c>
+      <c r="C113" s="3">
+        <f>B113-B112</f>
+        <v>0.35881961156999997</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.35881961156999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="7">
+        <v>10</v>
+      </c>
+      <c r="B114" s="7">
+        <v>0.58888770949299996</v>
+      </c>
+      <c r="C114" s="3">
+        <f>B114-B113</f>
+        <v>0.23006809792299998</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.23006809792299998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="7">
+        <v>15</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0.73640286188399995</v>
+      </c>
+      <c r="C115" s="3">
+        <f t="shared" ref="C115:C122" si="8">B115-B114</f>
+        <v>0.14751515239099999</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.14751515239099999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7">
+        <v>20</v>
+      </c>
+      <c r="B116" s="7">
+        <v>0.83098668459400005</v>
+      </c>
+      <c r="C116" s="3">
+        <f t="shared" si="8"/>
+        <v>9.4583822710000098E-2</v>
+      </c>
+      <c r="D116" s="3">
+        <v>9.4583822710000098E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7">
+        <v>25</v>
+      </c>
+      <c r="B117" s="7">
+        <v>0.89163197677799999</v>
+      </c>
+      <c r="C117" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0645292183999944E-2</v>
+      </c>
+      <c r="D117" s="3">
+        <v>6.0645292183999944E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="7">
+        <v>30</v>
+      </c>
+      <c r="B118" s="7">
+        <v>0.93051654877699996</v>
+      </c>
+      <c r="C118" s="3">
+        <f t="shared" si="8"/>
+        <v>3.8884571998999973E-2</v>
+      </c>
+      <c r="D118" s="3">
+        <v>3.8884571998999973E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="7">
+        <v>35</v>
+      </c>
+      <c r="B119" s="7">
+        <v>0.95544857375600001</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4932024979000045E-2</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2.4932024979000045E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="7">
+        <v>40</v>
+      </c>
+      <c r="B120" s="7">
+        <v>0.97143449921500002</v>
+      </c>
+      <c r="C120" s="3">
+        <f>B120-B119</f>
+        <v>1.5985925459000017E-2</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1.5985925459000017E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="7">
+        <v>45</v>
+      </c>
+      <c r="B121" s="7">
+        <v>0.98168436111099999</v>
+      </c>
+      <c r="C121" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0249861895999968E-2</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1.0249861895999968E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="7">
+        <v>50</v>
+      </c>
+      <c r="B122" s="7">
+        <v>0.98825637154299995</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" si="8"/>
+        <v>6.5720104319999528E-3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>6.5720104319999528E-3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
